--- a/biology/Zoologie/Intecymbium_antarcticum/Intecymbium_antarcticum.xlsx
+++ b/biology/Zoologie/Intecymbium_antarcticum/Intecymbium_antarcticum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Intecymbium antarcticum, unique représentant du genre Intecymbium, est une espèce d'araignées aranéomorphes de la famille des Linyphiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Intecymbium antarcticum, unique représentant du genre Intecymbium, est une espèce d'araignées aranéomorphes de la famille des Linyphiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Argentine en Terre de Feu et au Chili dans les régions des Lacs et de Magallanes[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Argentine en Terre de Feu et au Chili dans les régions des Lacs et de Magallanes,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit par Miller en 2007 mesure 1,58 mm et la femelle 1,60 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit par Miller en 2007 mesure 1,58 mm et la femelle 1,60 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Intecymbium est un mélange du mot latin "integro" signifiant "entier" et de cymbium, une des parties qui compose le bulbe copulateur des araignées.
 </t>
@@ -604,10 +622,12 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Simon, 1895 : Arachnides recueillis a la Terre-de-feu par M. Carlos Backhausen. Anales del Museo nacional de Buenos Aires, vol. 4, p. 167-172.
-Miller, 2007 : Review of erigonine spider genera in the Neotropics (Araneae: Linyphiidae, Erigoninae). Zoological Journal of the Linnean Society, vol. 149, suppl. 1, p. 1-263[3].</t>
+Miller, 2007 : Review of erigonine spider genera in the Neotropics (Araneae: Linyphiidae, Erigoninae). Zoological Journal of the Linnean Society, vol. 149, suppl. 1, p. 1-263.</t>
         </is>
       </c>
     </row>
